--- a/results/xgbr_woSOFA.xlsx
+++ b/results/xgbr_woSOFA.xlsx
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.217</v>
+        <v>0.179</v>
       </c>
       <c r="C7" t="n">
         <v>0.497</v>
       </c>
       <c r="D7" t="n">
-        <v>0.158</v>
+        <v>0.099</v>
       </c>
       <c r="E7" t="n">
-        <v>0.42</v>
+        <v>0.432</v>
       </c>
       <c r="F7" t="n">
-        <v>0.348</v>
+        <v>0.361</v>
       </c>
       <c r="G7" t="n">
-        <v>0.371</v>
+        <v>0.379</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.19</v>
+        <v>-11.788</v>
       </c>
       <c r="C8" t="n">
-        <v>0.162</v>
+        <v>0.161</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.907</v>
+        <v>-3.184</v>
       </c>
       <c r="E8" t="n">
-        <v>0.338</v>
+        <v>0.351</v>
       </c>
       <c r="F8" t="n">
-        <v>0.323</v>
+        <v>0.336</v>
       </c>
       <c r="G8" t="n">
-        <v>0.355</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.634</v>
+        <v>2.698</v>
       </c>
       <c r="C9" t="n">
-        <v>2.507</v>
+        <v>2.508</v>
       </c>
       <c r="D9" t="n">
-        <v>2.883</v>
+        <v>2.984</v>
       </c>
       <c r="E9" t="n">
-        <v>2.883</v>
+        <v>2.854</v>
       </c>
       <c r="F9" t="n">
-        <v>2.672</v>
+        <v>2.646</v>
       </c>
       <c r="G9" t="n">
-        <v>2.712</v>
+        <v>2.693</v>
       </c>
     </row>
     <row r="10">
@@ -678,16 +678,16 @@
         <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F10" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.886</v>
+        <v>0.848</v>
       </c>
       <c r="C11" t="n">
-        <v>0.184</v>
+        <v>0.183</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216</v>
+        <v>0.156</v>
       </c>
       <c r="E11" t="n">
-        <v>0.422</v>
+        <v>0.434</v>
       </c>
       <c r="F11" t="n">
-        <v>0.38</v>
+        <v>0.393</v>
       </c>
       <c r="G11" t="n">
-        <v>0.381</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.795</v>
+        <v>13.197</v>
       </c>
       <c r="C12" t="n">
-        <v>0.307</v>
+        <v>0.306</v>
       </c>
       <c r="D12" t="n">
-        <v>1.001</v>
+        <v>0.724</v>
       </c>
       <c r="E12" t="n">
-        <v>0.483</v>
+        <v>0.496</v>
       </c>
       <c r="F12" t="n">
-        <v>0.395</v>
+        <v>0.408</v>
       </c>
       <c r="G12" t="n">
-        <v>0.391</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-1.212</v>
+        <v>-1.148</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.423</v>
+        <v>-0.422</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.348</v>
+        <v>-0.248</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.907</v>
+        <v>-0.9360000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6889999999999999</v>
+        <v>-0.716</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.725</v>
+        <v>-0.743</v>
       </c>
     </row>
     <row r="14">
@@ -778,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
